--- a/tests/data/actual.xlsx
+++ b/tests/data/actual.xlsx
@@ -14,122 +14,39 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
-  <si>
-    <t>Empresa</t>
-  </si>
-  <si>
-    <t>Tipo</t>
-  </si>
-  <si>
-    <t>Cód. de Negociação</t>
-  </si>
-  <si>
-    <t>Cod.ISIN</t>
-  </si>
-  <si>
-    <t>Preço (R$)*</t>
-  </si>
-  <si>
-    <t>Qtde.</t>
-  </si>
-  <si>
-    <t>Fator Cotação</t>
-  </si>
-  <si>
-    <t>Valor (R$)</t>
-  </si>
-  <si>
-    <t>BERKSHIRE</t>
-  </si>
-  <si>
-    <t>DRN</t>
-  </si>
-  <si>
-    <t>BERK34</t>
-  </si>
-  <si>
-    <t>BRBERKBDR002</t>
-  </si>
-  <si>
-    <t>74,90</t>
-  </si>
-  <si>
-    <t>34.978,30</t>
-  </si>
-  <si>
-    <t>2,00</t>
-  </si>
-  <si>
-    <t>1,00</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Ticker</t>
+  </si>
+  <si>
+    <t>Actual</t>
+  </si>
+  <si>
+    <t>iShares Core S&amp;P Total US Stock Market ETF</t>
   </si>
   <si>
     <t>BITO39</t>
   </si>
   <si>
-    <t xml:space="preserve">BIEF39
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">iShares Core S&amp;P Total US Stock Market ETF
-iShares Core MSCI EAFE ETF
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">iShares Core S&amp;P Total US Stock Market ETF
-</t>
-  </si>
-  <si>
     <t>iShares Core MSCI EAFE ETF</t>
   </si>
   <si>
-    <t>BRBITO39</t>
-  </si>
-  <si>
-    <t>BRBIEF39</t>
-  </si>
-  <si>
-    <t>MSCI EAFE ETF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">iShares Core MSCI EAFE ETF
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-</t>
-  </si>
-  <si>
     <t>BIEF39</t>
   </si>
   <si>
-    <t xml:space="preserve">iShares Core MSCI EAFE ETFabc
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">iShares Core 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">iShares
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">iSharesCoreS&amp;PTotal US Stock Market ETF
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">iSharesCoreS&amp;PTotalUSStockMarketETF
-</t>
-  </si>
-  <si>
-    <t>iShares Core S&amp;P Total US Stock Market ETF</t>
+    <t>iShares Core MSCI Emerging Markets ETF</t>
+  </si>
+  <si>
+    <t>BIEM39</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="8" mc:Ignorable="x14ac">
   <numFmts count="8">
     <numFmt numFmtId="5" formatCode="&quot;$&quot;#,##0_);(&quot;$&quot;#,##0)"/>
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red](&quot;$&quot;#,##0)"/>
@@ -144,37 +61,25 @@
     <font>
       <name val="Arial"/>
       <color rgb="FF000000"/>
-      <sz val="11"/>
+      <sz val="10"/>
     </font>
     <font>
-      <name val="&quot;Helvetica Neue&quot;"/>
-      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <color rgb="FF000000"/>
       <sz val="12"/>
     </font>
     <font>
-      <name val="&quot;Helvetica Neue&quot;"/>
-      <color rgb="FF333333"/>
+      <name val="Calibri"/>
+      <color rgb="FF000000"/>
       <sz val="12"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="lightGray"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF003475"/>
-        <bgColor rgb="FF003475"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -185,15 +90,9 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -223,40 +122,40 @@
         <a:srgbClr val="FFFFFF"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr val="4285F4"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr val="EA4335"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr val="FBBC04"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr val="34A853"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr val="FF6D01"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr val="46BDC6"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr val="1155CC"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr val="1155CC"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Sheets">
       <a:majorFont>
-        <a:latin typeface="Calibri"/>
-        <a:ea typeface="Calibri"/>
-        <a:cs typeface="Calibri"/>
+        <a:latin typeface="Arial"/>
+        <a:ea typeface="Arial"/>
+        <a:cs typeface="Arial"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
-        <a:ea typeface="Calibri"/>
-        <a:cs typeface="Calibri"/>
+        <a:latin typeface="Arial"/>
+        <a:ea typeface="Arial"/>
+        <a:cs typeface="Arial"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -407,88 +306,38 @@
   </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="topLeft" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="12.63" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="14.43" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" s="3">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="3">
         <v>1</v>
-      </c>
-      <c r="G2" s="3">
-        <v>1</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="3">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="3">
         <v>2</v>
       </c>
-      <c r="G3" s="3">
-        <v>1</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>14</v>
-      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="3"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
